--- a/Munka.xlsx
+++ b/Munka.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mate\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Joburi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D2A308-557C-4246-8ABB-FBD0619DA38F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042EBAA2-7F91-4FCA-B567-C7F585A099E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="2040" windowWidth="21600" windowHeight="11505" xr2:uid="{B27FB81F-0BDC-48C7-B2A0-7DF3714A9228}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{B27FB81F-0BDC-48C7-B2A0-7DF3714A9228}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>Melyik oldal?</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>2óra</t>
+  </si>
+  <si>
+    <t>Pagination + scss</t>
+  </si>
+  <si>
+    <t>2 óra</t>
   </si>
 </sst>
 </file>
@@ -429,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6998BA6B-259B-4200-BA61-72CFF533D957}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
@@ -541,6 +547,20 @@
         <v>44488</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1">
+        <v>44491</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Munka.xlsx
+++ b/Munka.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Joburi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{042EBAA2-7F91-4FCA-B567-C7F585A099E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FCF5832-3F45-4ABB-A69C-6C67EA48EDE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{B27FB81F-0BDC-48C7-B2A0-7DF3714A9228}"/>
+    <workbookView xWindow="3315" yWindow="705" windowWidth="13500" windowHeight="11505" xr2:uid="{B27FB81F-0BDC-48C7-B2A0-7DF3714A9228}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>Melyik oldal?</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>2 óra</t>
+  </si>
+  <si>
+    <t>3 óra</t>
   </si>
 </sst>
 </file>
@@ -435,16 +438,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6998BA6B-259B-4200-BA61-72CFF533D957}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -561,6 +564,20 @@
         <v>44491</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1">
+        <v>44497</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
